--- a/细节优化-不定期更新/SMT看板/测试数据.xlsx
+++ b/细节优化-不定期更新/SMT看板/测试数据.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE94522B-1702-4852-9BFD-5CCCB22646A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,11 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
-  <si>
-    <t>2018-Ya-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>xxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018-Ya-03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -46,26 +37,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018/9/33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2018-Ya-04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018/9/44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/9/55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/9/66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>qqq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,14 +58,22 @@
   </si>
   <si>
     <t>2018-Ya-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-TEST-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-TEST-222</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,7 +172,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -224,7 +207,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -401,125 +384,126 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>1111</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1">
         <v>43354</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>2222</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
         <v>43365</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>3333</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>43354</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>4444</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>14</v>
       </c>
       <c r="B5">
         <v>5555</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>43354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>15</v>
       </c>
       <c r="B6">
         <v>6666</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>43354</v>
       </c>
     </row>
   </sheetData>

--- a/细节优化-不定期更新/SMT看板/测试数据.xlsx
+++ b/细节优化-不定期更新/SMT看板/测试数据.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1B14FA-1306-4F8A-B0BB-24CD858C9DCD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,16 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
   <si>
     <t>xxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018-Ya-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -37,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018-Ya-04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>qqq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,15 +58,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018-TEST-222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>2018-TEST-101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-TEST-202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-TEST-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>平台类型</t>
+  </si>
+  <si>
+    <t>客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建记录日期</t>
+  </si>
+  <si>
+    <t>产线</t>
+  </si>
+  <si>
+    <t>交货时间</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,9 +137,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -384,126 +417,393 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A4:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E3"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="7.125" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1111</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>43354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2222</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1">
+      <c r="D8" s="1">
+        <v>3333</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>43356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4444</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>43357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5555</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2">
+        <v>43358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6666</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>43359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1">
         <v>1111</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1">
+      <c r="G21" s="2">
         <v>43354</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2222</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>2222</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>43365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3333</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1">
-        <v>43365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="G23" s="2">
+        <v>43356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>3333</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D24" s="1">
+        <v>4444</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1">
-        <v>43354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="G24" s="2">
+        <v>43357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5555</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>4444</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="2">
+        <v>43358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1">
+        <v>6666</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1">
-        <v>43354</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>5555</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1">
-        <v>43354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>6666</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1">
-        <v>43354</v>
+      <c r="G26" s="2">
+        <v>43359</v>
       </c>
     </row>
   </sheetData>
